--- a/LeSpMV/script/SuiteSparse_Matrix.xlsx
+++ b/LeSpMV/script/SuiteSparse_Matrix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\研究生所有文件\2024\SpMV-predict-model\Suitsparse Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354AC72D-6A04-4919-A862-5E0E2AC8F46C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0112A647-686E-4A10-8F22-BA62F59FFFFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7130" yWindow="2310" windowWidth="18030" windowHeight="10630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Total2833" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8506" uniqueCount="3116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8509" uniqueCount="3118">
   <si>
     <t>Trec3</t>
   </si>
@@ -9403,6 +9403,13 @@
   </si>
   <si>
     <t>pwt_id_1273</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sk-2005</t>
+  </si>
+  <si>
+    <t>Directed Graph</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -9446,13 +9453,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9734,10 +9747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2834"/>
+  <dimension ref="A1:H2835"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1943" workbookViewId="0">
-      <selection activeCell="D1952" sqref="D1952"/>
+    <sheetView tabSelected="1" topLeftCell="A2814" workbookViewId="0">
+      <selection activeCell="K2827" sqref="K2827"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -83310,6 +83323,32 @@
         <v>2004</v>
       </c>
     </row>
+    <row r="2835" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2835" s="3">
+        <v>2454</v>
+      </c>
+      <c r="B2835" s="3" t="s">
+        <v>3116</v>
+      </c>
+      <c r="C2835" s="3" t="s">
+        <v>2072</v>
+      </c>
+      <c r="D2835" s="4">
+        <v>50636154</v>
+      </c>
+      <c r="E2835" s="4">
+        <v>50636154</v>
+      </c>
+      <c r="F2835" s="4">
+        <v>1949412601</v>
+      </c>
+      <c r="G2835" s="3" t="s">
+        <v>3117</v>
+      </c>
+      <c r="H2835" s="4">
+        <v>2005</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
